--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,218 +424,157 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SRAD</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AES</t>
-        </is>
-      </c>
+          <t>FON</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr">
         <is>
-          <t>+HY</t>
+          <t>∆</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>X- LIB</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-*- HS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>- BN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>Time (ms)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-- BP</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>0.00062628</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MUM</t>
+          <t>3.02114157275819E−07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NN</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-x-NQU</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>265</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAD</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L.V.
-:unselected:</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>0.00012303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.7161260331065E−07</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PF
-:unselected:</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64H</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>VW</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>412</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x-CL</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>- STO
-:unselected:</t>
+          <t>3.12941584E−05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LPS</t>
+          <t>1.87277017387398E−08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+ BFS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ST3D</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SLA</t>
+          <t>1017</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TPACF</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A MM</t>
+          <t>9.65502416E−06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>*- PNS
-:unselected:</t>
+          <t>6.73906669789347E−09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-*- SP
-:unselected:</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+ MT</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>RAY</t>
+          <t>4524</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4.0299408E−06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7.60267048409699E−09</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9574</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="24">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="G1"/>
+    <mergeCell ref="B6"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
-    <mergeCell ref="F1"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="G2"/>
+    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F3"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
-    <mergeCell ref="F5"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,157 +424,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FON</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>∆</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Time (ms)</t>
+          <t>40 10
+wrt CFS) 0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ULE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.00062628</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3.02114157275819E−07</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.00012303</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.7161260331065E−07</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.12941584E−05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.87277017387398E−08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1017</t>
+          <t>- - I</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9.65502416E−06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6.73906669789347E−09</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
+          <t>diff,
+-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4.0299408E−06</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7.60267048409699E−09</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9574</t>
-        </is>
-      </c>
+          <t>(%</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30 -40</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D4"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
+  <mergeCells count="11">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,67 +424,261 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>40 10
-wrt CFS) 0</t>
+          <t>Team</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ULE</t>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Error (top-5)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Uses external data</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SuperVision</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SuperVision</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.3%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Imagenet 22k</t>
+        </is>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Clarifai</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>- - I</t>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.7%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>diff,
--10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Clarifai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Imagenet 22k</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(%</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>MSRA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.35%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30 -40</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.32%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GoogLeNet</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
+  <mergeCells count="40">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,263 +422,125 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Place</t>
+          <t>protosyntax test human set</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Error (top-5)</t>
+          <t>lexical test</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Uses external data</t>
+          <t>human set</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SuperVision</t>
+          <t>humans native</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>80.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.4%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>60.38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SuperVision</t>
+          <t>STELA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>74.86</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>73.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.3%</t>
+          <t>68.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Imagenet 22k</t>
+          <t>71.18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clarifai</t>
+          <t>pGSLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>65.94</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>64.88</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>72.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Clarifai</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Imagenet 22k</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MSRA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.35%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VGG</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.32%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GoogLeNet</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>73.33</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A8"/>
+  <mergeCells count="19">
     <mergeCell ref="D4"/>
-    <mergeCell ref="C8"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
     <mergeCell ref="E3"/>
-    <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="E8"/>
     <mergeCell ref="C4"/>
     <mergeCell ref="E4"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="B8"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="E2"/>
-    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,125 +422,263 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>protosyntax test human set</t>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Place</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>lexical test</t>
+          <t>Error (top-5)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>human set</t>
+          <t>Uses external data</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>humans native</t>
+          <t>SuperVision</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.38</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STELA</t>
+          <t>SuperVision</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>73.32</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.28</t>
+          <t>15.3%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.18</t>
+          <t>Imagenet 22k</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pGSLM</t>
+          <t>Clarifai</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>65.94</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>64.88</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72.88</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Clarifai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Imagenet 22k</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MSRA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.35%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VGG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.32%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GoogLeNet</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="40">
+    <mergeCell ref="A8"/>
     <mergeCell ref="D4"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
     <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="E8"/>
     <mergeCell ref="C4"/>
     <mergeCell ref="E4"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="B8"/>
     <mergeCell ref="A3"/>
+    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
+    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="E2"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,261 +424,475 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>langs</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>syst</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Error (top-5)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Uses external data</t>
+          <t>SVM + 17 features</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BERT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SuperVision</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.4%</t>
+          <t>ρ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>src (%)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tgt (%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>src (%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>tgt (%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SuperVision</t>
+          <t>WMT18∗</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>de-en</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.3%</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Imagenet 22k</t>
+          <t>62.3%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>57.6%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.697</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>62.0%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>81.2%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Clarifai</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>en-cs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>0.398</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>57.3%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>79.9%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.609</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>88.2%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96.1%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Clarifai</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>en-de</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>NMT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Imagenet 22k</t>
+          <t>63.4%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>78.6%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.456</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>92.5%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>88.4%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MSRA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>0.326</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>113.2%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.597</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>71.2%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>100.3%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VGG</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>en-lv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>NMT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>0.273</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>52.4%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>60.8%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.621</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>68.8%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>77.3%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GoogLeNet</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>0.311</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>38.6%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>51.5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.509</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>82.5%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>93.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WMT19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>en-de</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NMT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.423</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>94.6%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>90.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>en-ru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NMT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.439</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>75.2%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>95.9%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A8"/>
+  <mergeCells count="75">
+    <mergeCell ref="I5"/>
     <mergeCell ref="D4"/>
     <mergeCell ref="C8"/>
-    <mergeCell ref="A4"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="B9"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="H3"/>
     <mergeCell ref="C7"/>
     <mergeCell ref="D8"/>
-    <mergeCell ref="B6"/>
     <mergeCell ref="E7"/>
     <mergeCell ref="B5"/>
+    <mergeCell ref="I10"/>
     <mergeCell ref="D5"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="H5"/>
     <mergeCell ref="B4"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="A9"/>
     <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
     <mergeCell ref="E3"/>
+    <mergeCell ref="I6"/>
     <mergeCell ref="B7"/>
-    <mergeCell ref="D1"/>
     <mergeCell ref="C6"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="G2"/>
     <mergeCell ref="B3"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="F6"/>
     <mergeCell ref="C5"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="H4"/>
     <mergeCell ref="E5"/>
-    <mergeCell ref="A6"/>
+    <mergeCell ref="H10"/>
     <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="F7"/>
     <mergeCell ref="C4"/>
+    <mergeCell ref="G8"/>
     <mergeCell ref="E4"/>
-    <mergeCell ref="A7"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="F3"/>
     <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="C10"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="C9"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="B8"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I3"/>
     <mergeCell ref="D7"/>
-    <mergeCell ref="A2"/>
     <mergeCell ref="E6"/>
-    <mergeCell ref="C2"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="B10"/>
     <mergeCell ref="E2"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,63 +424,137 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Number of Layers</t>
+          <t>Granularity</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1 2</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>RN-110</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>RN-50</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>5 6</t>
+          <t>GNMT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>RHN</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BERT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AdaHIT</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.809 0.807 0.796</t>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>99%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.762 0.734</t>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Small region</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>99%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B1"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="21">
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="E3"/>
     <mergeCell ref="D1"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="F3"/>
     <mergeCell ref="C1"/>
-    <mergeCell ref="A2"/>
+    <mergeCell ref="B2"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="B1"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="C2"/>
     <mergeCell ref="E2"/>
-    <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,137 +424,135 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Granularity</t>
+          <t>Query</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>Abbr.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>RN-110</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RN-50</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>GNMT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>RHN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BERT</t>
+          <t>Metric</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Binary Predicate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>Return frames where querying object appears</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>94%</t>
+          <t>Accuracy</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Small region</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>CNT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>Return the average count of querying object in frames</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>99%</t>
+          <t>Absolute Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Local Binary Predicate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LBP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Return frames where querying object appears in a certain region of frames</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Local Count</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LCNT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Return the average count of querying object in a certain region of frames</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Absolute Error</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="D4"/>
+    <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="F1"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="E3"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="G2"/>
     <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="F3"/>
+    <mergeCell ref="C4"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,134 +424,120 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Query</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Abbr.</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Metric</t>
+          <t>Algorithm 2: GPU Scaling Algorithm</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Binary Predicate</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Return frames where querying object appears</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
+          <t>SCALING(GPU_LIMIT):</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CNT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Return the average count of querying object in frames</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Absolute Error</t>
+          <t>1 for each period do</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Local Binary Predicate</t>
+          <t>2 3 4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LBP</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Return frames where querying object appears in a certain region of frames</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
+          <t>N ← The number of used GPUs in previous period result ← ELASTICPARTITIONING with N GPUs while result is fail and N &lt; GPU_LIMIT do</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Local Count</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LCNT</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Return the average count of querying object in a certain region of frames</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Absolute Error</t>
+          <t>N ← N +1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>result ← ELASTICPARTITIONING with N GPUs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>if result is fail then</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9 10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Report an unschedulable event end</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11 end</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D4"/>
+  <mergeCells count="16">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="A9"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,181 +424,205 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GPU tracking</t>
+          <t>Method</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>RN-110</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>RN-50</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>GNMT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>RHN</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BERT</t>
+          <t>∆(F1)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>Pre.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>Rec.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>94%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>97%</t>
+          <t>F1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fine-grained</t>
+          <t>MRC-APE (Ours)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>41.83</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>38.17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>99%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Coarse-grained</t>
+          <t>w/o Db → Da</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>49.47</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>31.33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>38.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>100%</t>
+          <t>1.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>w/o Da → Db</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>w/o LSTM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>w/o GA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.90</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="31">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="G1"/>
-    <mergeCell ref="F1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
     <mergeCell ref="E3"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="G2"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
     <mergeCell ref="E4"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="C1"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="A2"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
